--- a/excel_sheets/DBAA.xlsx
+++ b/excel_sheets/DBAA.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marvi\OneDrive\Documents\GitHub\Stock_Markets\excel_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F7D7A12-772D-47CF-B1FB-887CEB580447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69891F0B-A913-4CB0-BA5E-3974F089172B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBAA" sheetId="1" r:id="rId1"/>
@@ -22,21 +22,21 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="3">
   <si>
-    <t>DBAA</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
     <t>dates</t>
   </si>
+  <si>
+    <t>Baa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -517,7 +517,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -892,11 +892,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,10 +906,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -997,7 +997,7 @@
         <v>36178</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1157,7 +1157,7 @@
         <v>36206</v>
       </c>
       <c r="B32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1757,7 +1757,7 @@
         <v>36311</v>
       </c>
       <c r="B107" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1957,7 +1957,7 @@
         <v>36346</v>
       </c>
       <c r="B132" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2317,7 +2317,7 @@
         <v>36409</v>
       </c>
       <c r="B177" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -2517,7 +2517,7 @@
         <v>36444</v>
       </c>
       <c r="B202" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -2781,7 +2781,7 @@
         <v>36489</v>
       </c>
       <c r="B235" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -2949,7 +2949,7 @@
         <v>36518</v>
       </c>
       <c r="B256" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -3077,7 +3077,7 @@
         <v>36542</v>
       </c>
       <c r="B272" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -3277,7 +3277,7 @@
         <v>36577</v>
       </c>
       <c r="B297" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -3629,7 +3629,7 @@
         <v>36637</v>
       </c>
       <c r="B341" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -3837,7 +3837,7 @@
         <v>36675</v>
       </c>
       <c r="B367" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
@@ -4045,7 +4045,7 @@
         <v>36711</v>
       </c>
       <c r="B393" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -4397,7 +4397,7 @@
         <v>36773</v>
       </c>
       <c r="B437" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
@@ -4597,7 +4597,7 @@
         <v>36808</v>
       </c>
       <c r="B462" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
@@ -4861,7 +4861,7 @@
         <v>36853</v>
       </c>
       <c r="B495" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
@@ -5037,7 +5037,7 @@
         <v>36885</v>
       </c>
       <c r="B517" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
@@ -5077,7 +5077,7 @@
         <v>36892</v>
       </c>
       <c r="B522" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
@@ -5157,7 +5157,7 @@
         <v>36906</v>
       </c>
       <c r="B532" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
@@ -5357,7 +5357,7 @@
         <v>36941</v>
       </c>
       <c r="B557" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
@@ -5669,7 +5669,7 @@
         <v>36994</v>
       </c>
       <c r="B596" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
@@ -5917,7 +5917,7 @@
         <v>37039</v>
       </c>
       <c r="B627" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
@@ -6133,7 +6133,7 @@
         <v>37076</v>
       </c>
       <c r="B654" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
@@ -6477,7 +6477,7 @@
         <v>37137</v>
       </c>
       <c r="B697" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
@@ -6525,7 +6525,7 @@
         <v>37145</v>
       </c>
       <c r="B703" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
@@ -6533,7 +6533,7 @@
         <v>37146</v>
       </c>
       <c r="B704" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
@@ -6677,7 +6677,7 @@
         <v>37172</v>
       </c>
       <c r="B722" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
@@ -6877,7 +6877,7 @@
         <v>37207</v>
       </c>
       <c r="B747" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.25">
@@ -6941,7 +6941,7 @@
         <v>37217</v>
       </c>
       <c r="B755" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.25">
@@ -7117,7 +7117,7 @@
         <v>37249</v>
       </c>
       <c r="B777" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.25">
@@ -7125,7 +7125,7 @@
         <v>37250</v>
       </c>
       <c r="B778" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.25">
@@ -7165,7 +7165,7 @@
         <v>37257</v>
       </c>
       <c r="B783" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.25">
@@ -7277,7 +7277,7 @@
         <v>37277</v>
       </c>
       <c r="B797" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.25">
@@ -7437,7 +7437,7 @@
         <v>37305</v>
       </c>
       <c r="B817" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.25">
@@ -7669,7 +7669,7 @@
         <v>37344</v>
       </c>
       <c r="B846" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.25">
@@ -7997,7 +7997,7 @@
         <v>37403</v>
       </c>
       <c r="B887" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.25">
@@ -8221,7 +8221,7 @@
         <v>37441</v>
       </c>
       <c r="B915" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.25">
@@ -8557,7 +8557,7 @@
         <v>37501</v>
       </c>
       <c r="B957" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.25">
@@ -8797,7 +8797,7 @@
         <v>37543</v>
       </c>
       <c r="B987" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.25">
@@ -8957,7 +8957,7 @@
         <v>37571</v>
       </c>
       <c r="B1007" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.25">
@@ -9061,7 +9061,7 @@
         <v>37588</v>
       </c>
       <c r="B1020" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.25">
@@ -9213,7 +9213,7 @@
         <v>37615</v>
       </c>
       <c r="B1039" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1040" spans="1:2" x14ac:dyDescent="0.25">
@@ -9253,7 +9253,7 @@
         <v>37622</v>
       </c>
       <c r="B1044" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1045" spans="1:2" x14ac:dyDescent="0.25">
@@ -9357,7 +9357,7 @@
         <v>37641</v>
       </c>
       <c r="B1057" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058" spans="1:2" x14ac:dyDescent="0.25">
@@ -9517,7 +9517,7 @@
         <v>37669</v>
       </c>
       <c r="B1077" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1078" spans="1:2" x14ac:dyDescent="0.25">
@@ -9869,7 +9869,7 @@
         <v>37729</v>
       </c>
       <c r="B1121" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1122" spans="1:2" x14ac:dyDescent="0.25">
@@ -10077,7 +10077,7 @@
         <v>37767</v>
       </c>
       <c r="B1147" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1148" spans="1:2" x14ac:dyDescent="0.25">
@@ -10309,7 +10309,7 @@
         <v>37806</v>
       </c>
       <c r="B1176" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1177" spans="1:2" x14ac:dyDescent="0.25">
@@ -10637,7 +10637,7 @@
         <v>37865</v>
       </c>
       <c r="B1217" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.25">
@@ -10877,7 +10877,7 @@
         <v>37907</v>
       </c>
       <c r="B1247" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1248" spans="1:2" x14ac:dyDescent="0.25">
@@ -11045,7 +11045,7 @@
         <v>37936</v>
       </c>
       <c r="B1268" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1269" spans="1:2" x14ac:dyDescent="0.25">
@@ -11141,7 +11141,7 @@
         <v>37952</v>
       </c>
       <c r="B1280" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1281" spans="1:2" x14ac:dyDescent="0.25">
@@ -11301,7 +11301,7 @@
         <v>37980</v>
       </c>
       <c r="B1300" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1301" spans="1:2" x14ac:dyDescent="0.25">
@@ -11341,7 +11341,7 @@
         <v>37987</v>
       </c>
       <c r="B1305" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1306" spans="1:2" x14ac:dyDescent="0.25">
@@ -11437,7 +11437,7 @@
         <v>38005</v>
       </c>
       <c r="B1317" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1318" spans="1:2" x14ac:dyDescent="0.25">
@@ -11597,7 +11597,7 @@
         <v>38033</v>
       </c>
       <c r="B1337" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1338" spans="1:2" x14ac:dyDescent="0.25">
@@ -11909,7 +11909,7 @@
         <v>38086</v>
       </c>
       <c r="B1376" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1377" spans="1:2" x14ac:dyDescent="0.25">
@@ -12197,7 +12197,7 @@
         <v>38138</v>
       </c>
       <c r="B1412" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1413" spans="1:2" x14ac:dyDescent="0.25">
@@ -12269,7 +12269,7 @@
         <v>38149</v>
       </c>
       <c r="B1421" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1422" spans="1:2" x14ac:dyDescent="0.25">
@@ -12397,7 +12397,7 @@
         <v>38173</v>
       </c>
       <c r="B1437" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1438" spans="1:2" x14ac:dyDescent="0.25">
@@ -12757,7 +12757,7 @@
         <v>38236</v>
       </c>
       <c r="B1482" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1483" spans="1:2" x14ac:dyDescent="0.25">
@@ -12957,7 +12957,7 @@
         <v>38271</v>
       </c>
       <c r="B1507" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1508" spans="1:2" x14ac:dyDescent="0.25">
@@ -13141,7 +13141,7 @@
         <v>38302</v>
       </c>
       <c r="B1530" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1531" spans="1:2" x14ac:dyDescent="0.25">
@@ -13221,7 +13221,7 @@
         <v>38316</v>
       </c>
       <c r="B1540" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1541" spans="1:2" x14ac:dyDescent="0.25">
@@ -13389,7 +13389,7 @@
         <v>38345</v>
       </c>
       <c r="B1561" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1562" spans="1:2" x14ac:dyDescent="0.25">
@@ -13517,7 +13517,7 @@
         <v>38369</v>
       </c>
       <c r="B1577" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1578" spans="1:2" x14ac:dyDescent="0.25">
@@ -13717,7 +13717,7 @@
         <v>38404</v>
       </c>
       <c r="B1602" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1603" spans="1:2" x14ac:dyDescent="0.25">
@@ -13909,7 +13909,7 @@
         <v>38436</v>
       </c>
       <c r="B1626" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1627" spans="1:2" x14ac:dyDescent="0.25">
@@ -14277,7 +14277,7 @@
         <v>38502</v>
       </c>
       <c r="B1672" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1673" spans="1:2" x14ac:dyDescent="0.25">
@@ -14477,7 +14477,7 @@
         <v>38537</v>
       </c>
       <c r="B1697" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1698" spans="1:2" x14ac:dyDescent="0.25">
@@ -14837,7 +14837,7 @@
         <v>38600</v>
       </c>
       <c r="B1742" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1743" spans="1:2" x14ac:dyDescent="0.25">
@@ -15037,7 +15037,7 @@
         <v>38635</v>
       </c>
       <c r="B1767" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1768" spans="1:2" x14ac:dyDescent="0.25">
@@ -15229,7 +15229,7 @@
         <v>38667</v>
       </c>
       <c r="B1791" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1792" spans="1:2" x14ac:dyDescent="0.25">
@@ -15301,7 +15301,7 @@
         <v>38680</v>
       </c>
       <c r="B1800" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1801" spans="1:2" x14ac:dyDescent="0.25">
@@ -15477,7 +15477,7 @@
         <v>38712</v>
       </c>
       <c r="B1822" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1823" spans="1:2" x14ac:dyDescent="0.25">
@@ -15517,7 +15517,7 @@
         <v>38719</v>
       </c>
       <c r="B1827" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1828" spans="1:2" x14ac:dyDescent="0.25">
@@ -15597,7 +15597,7 @@
         <v>38733</v>
       </c>
       <c r="B1837" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1838" spans="1:2" x14ac:dyDescent="0.25">
@@ -15797,7 +15797,7 @@
         <v>38768</v>
       </c>
       <c r="B1862" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1863" spans="1:2" x14ac:dyDescent="0.25">
@@ -16109,7 +16109,7 @@
         <v>38821</v>
       </c>
       <c r="B1901" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1902" spans="1:2" x14ac:dyDescent="0.25">
@@ -16357,7 +16357,7 @@
         <v>38866</v>
       </c>
       <c r="B1932" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1933" spans="1:2" x14ac:dyDescent="0.25">
@@ -16565,7 +16565,7 @@
         <v>38902</v>
       </c>
       <c r="B1958" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1959" spans="1:2" x14ac:dyDescent="0.25">
@@ -16917,7 +16917,7 @@
         <v>38964</v>
       </c>
       <c r="B2002" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2003" spans="1:2" x14ac:dyDescent="0.25">
@@ -17117,7 +17117,7 @@
         <v>38999</v>
       </c>
       <c r="B2027" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2028" spans="1:2" x14ac:dyDescent="0.25">
@@ -17381,7 +17381,7 @@
         <v>39044</v>
       </c>
       <c r="B2060" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2061" spans="1:2" x14ac:dyDescent="0.25">
@@ -17557,7 +17557,7 @@
         <v>39076</v>
       </c>
       <c r="B2082" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2083" spans="1:2" x14ac:dyDescent="0.25">
@@ -17597,7 +17597,7 @@
         <v>39083</v>
       </c>
       <c r="B2087" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2088" spans="1:2" x14ac:dyDescent="0.25">
@@ -17677,7 +17677,7 @@
         <v>39097</v>
       </c>
       <c r="B2097" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2098" spans="1:2" x14ac:dyDescent="0.25">
@@ -17877,7 +17877,7 @@
         <v>39132</v>
       </c>
       <c r="B2122" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2123" spans="1:2" x14ac:dyDescent="0.25">
@@ -18437,7 +18437,7 @@
         <v>39230</v>
       </c>
       <c r="B2192" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2193" spans="1:2" x14ac:dyDescent="0.25">
@@ -18653,7 +18653,7 @@
         <v>39267</v>
       </c>
       <c r="B2219" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2220" spans="1:2" x14ac:dyDescent="0.25">
@@ -18997,7 +18997,7 @@
         <v>39328</v>
       </c>
       <c r="B2262" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2263" spans="1:2" x14ac:dyDescent="0.25">
@@ -19197,7 +19197,7 @@
         <v>39363</v>
       </c>
       <c r="B2287" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2288" spans="1:2" x14ac:dyDescent="0.25">
@@ -19397,7 +19397,7 @@
         <v>39398</v>
       </c>
       <c r="B2312" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2313" spans="1:2" x14ac:dyDescent="0.25">
@@ -19461,7 +19461,7 @@
         <v>39408</v>
       </c>
       <c r="B2320" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2321" spans="1:2" x14ac:dyDescent="0.25">
@@ -19645,7 +19645,7 @@
         <v>39441</v>
       </c>
       <c r="B2343" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2344" spans="1:2" x14ac:dyDescent="0.25">
@@ -19685,7 +19685,7 @@
         <v>39448</v>
       </c>
       <c r="B2348" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2349" spans="1:2" x14ac:dyDescent="0.25">
@@ -19797,7 +19797,7 @@
         <v>39468</v>
       </c>
       <c r="B2362" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2363" spans="1:2" x14ac:dyDescent="0.25">
@@ -19957,7 +19957,7 @@
         <v>39496</v>
       </c>
       <c r="B2382" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2383" spans="1:2" x14ac:dyDescent="0.25">
@@ -20149,7 +20149,7 @@
         <v>39528</v>
       </c>
       <c r="B2406" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2407" spans="1:2" x14ac:dyDescent="0.25">
@@ -20517,7 +20517,7 @@
         <v>39594</v>
       </c>
       <c r="B2452" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2453" spans="1:2" x14ac:dyDescent="0.25">
@@ -20749,7 +20749,7 @@
         <v>39633</v>
       </c>
       <c r="B2481" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2482" spans="1:2" x14ac:dyDescent="0.25">
@@ -21077,7 +21077,7 @@
         <v>39692</v>
       </c>
       <c r="B2522" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2523" spans="1:2" x14ac:dyDescent="0.25">
@@ -21317,7 +21317,7 @@
         <v>39734</v>
       </c>
       <c r="B2552" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2553" spans="1:2" x14ac:dyDescent="0.25">
@@ -21485,7 +21485,7 @@
         <v>39763</v>
       </c>
       <c r="B2573" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2574" spans="1:2" x14ac:dyDescent="0.25">
@@ -21581,7 +21581,7 @@
         <v>39779</v>
       </c>
       <c r="B2585" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2586" spans="1:2" x14ac:dyDescent="0.25">
@@ -21741,7 +21741,7 @@
         <v>39807</v>
       </c>
       <c r="B2605" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2606" spans="1:2" x14ac:dyDescent="0.25">
@@ -21781,7 +21781,7 @@
         <v>39814</v>
       </c>
       <c r="B2610" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2611" spans="1:2" x14ac:dyDescent="0.25">
@@ -21877,7 +21877,7 @@
         <v>39832</v>
       </c>
       <c r="B2622" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2623" spans="1:2" x14ac:dyDescent="0.25">
@@ -22037,7 +22037,7 @@
         <v>39860</v>
       </c>
       <c r="B2642" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2643" spans="1:2" x14ac:dyDescent="0.25">
@@ -22349,7 +22349,7 @@
         <v>39913</v>
       </c>
       <c r="B2681" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2682" spans="1:2" x14ac:dyDescent="0.25">
@@ -22597,7 +22597,7 @@
         <v>39958</v>
       </c>
       <c r="B2712" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2713" spans="1:2" x14ac:dyDescent="0.25">
@@ -22829,7 +22829,7 @@
         <v>39997</v>
       </c>
       <c r="B2741" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2742" spans="1:2" x14ac:dyDescent="0.25">
@@ -23197,7 +23197,7 @@
         <v>40063</v>
       </c>
       <c r="B2787" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2788" spans="1:2" x14ac:dyDescent="0.25">
@@ -23397,7 +23397,7 @@
         <v>40098</v>
       </c>
       <c r="B2812" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2813" spans="1:2" x14ac:dyDescent="0.25">
@@ -23573,7 +23573,7 @@
         <v>40128</v>
       </c>
       <c r="B2834" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2835" spans="1:2" x14ac:dyDescent="0.25">
@@ -23661,7 +23661,7 @@
         <v>40143</v>
       </c>
       <c r="B2845" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2846" spans="1:2" x14ac:dyDescent="0.25">
@@ -23829,7 +23829,7 @@
         <v>40172</v>
       </c>
       <c r="B2866" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2867" spans="1:2" x14ac:dyDescent="0.25">
@@ -23869,7 +23869,7 @@
         <v>40179</v>
       </c>
       <c r="B2871" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2872" spans="1:2" x14ac:dyDescent="0.25">
@@ -23957,7 +23957,7 @@
         <v>40196</v>
       </c>
       <c r="B2882" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2883" spans="1:2" x14ac:dyDescent="0.25">
@@ -24117,7 +24117,7 @@
         <v>40224</v>
       </c>
       <c r="B2902" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2903" spans="1:2" x14ac:dyDescent="0.25">
@@ -24717,7 +24717,7 @@
         <v>40329</v>
       </c>
       <c r="B2977" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2978" spans="1:2" x14ac:dyDescent="0.25">
@@ -24917,7 +24917,7 @@
         <v>40364</v>
       </c>
       <c r="B3002" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3003" spans="1:2" x14ac:dyDescent="0.25">
@@ -25277,7 +25277,7 @@
         <v>40427</v>
       </c>
       <c r="B3047" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3048" spans="1:2" x14ac:dyDescent="0.25">
@@ -25477,7 +25477,7 @@
         <v>40462</v>
       </c>
       <c r="B3072" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3073" spans="1:2" x14ac:dyDescent="0.25">
@@ -25741,7 +25741,7 @@
         <v>40507</v>
       </c>
       <c r="B3105" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3106" spans="1:2" x14ac:dyDescent="0.25">
@@ -25909,7 +25909,7 @@
         <v>40536</v>
       </c>
       <c r="B3126" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3127" spans="1:2" x14ac:dyDescent="0.25">
@@ -26037,7 +26037,7 @@
         <v>40560</v>
       </c>
       <c r="B3142" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3143" spans="1:2" x14ac:dyDescent="0.25">
@@ -26237,7 +26237,7 @@
         <v>40595</v>
       </c>
       <c r="B3167" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3168" spans="1:2" x14ac:dyDescent="0.25">
@@ -26589,7 +26589,7 @@
         <v>40655</v>
       </c>
       <c r="B3211" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3212" spans="1:2" x14ac:dyDescent="0.25">
@@ -26797,7 +26797,7 @@
         <v>40693</v>
       </c>
       <c r="B3237" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3238" spans="1:2" x14ac:dyDescent="0.25">
@@ -26997,7 +26997,7 @@
         <v>40728</v>
       </c>
       <c r="B3262" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3263" spans="1:2" x14ac:dyDescent="0.25">
@@ -27357,7 +27357,7 @@
         <v>40791</v>
       </c>
       <c r="B3307" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3308" spans="1:2" x14ac:dyDescent="0.25">
@@ -27557,7 +27557,7 @@
         <v>40826</v>
       </c>
       <c r="B3332" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3333" spans="1:2" x14ac:dyDescent="0.25">
@@ -27749,7 +27749,7 @@
         <v>40858</v>
       </c>
       <c r="B3356" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3357" spans="1:2" x14ac:dyDescent="0.25">
@@ -27821,7 +27821,7 @@
         <v>40871</v>
       </c>
       <c r="B3365" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3366" spans="1:2" x14ac:dyDescent="0.25">
@@ -27997,7 +27997,7 @@
         <v>40903</v>
       </c>
       <c r="B3387" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3388" spans="1:2" x14ac:dyDescent="0.25">
@@ -28037,7 +28037,7 @@
         <v>40910</v>
       </c>
       <c r="B3392" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3393" spans="1:2" x14ac:dyDescent="0.25">
@@ -28117,7 +28117,7 @@
         <v>40924</v>
       </c>
       <c r="B3402" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3403" spans="1:2" x14ac:dyDescent="0.25">
@@ -28317,7 +28317,7 @@
         <v>40959</v>
       </c>
       <c r="B3427" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3428" spans="1:2" x14ac:dyDescent="0.25">
@@ -28877,7 +28877,7 @@
         <v>41057</v>
       </c>
       <c r="B3497" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3498" spans="1:2" x14ac:dyDescent="0.25">
@@ -29093,7 +29093,7 @@
         <v>41094</v>
       </c>
       <c r="B3524" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3525" spans="1:2" x14ac:dyDescent="0.25">
@@ -29437,7 +29437,7 @@
         <v>41155</v>
       </c>
       <c r="B3567" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3568" spans="1:2" x14ac:dyDescent="0.25">
@@ -29637,7 +29637,7 @@
         <v>41190</v>
       </c>
       <c r="B3592" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3593" spans="1:2" x14ac:dyDescent="0.25">
@@ -29765,7 +29765,7 @@
         <v>41212</v>
       </c>
       <c r="B3608" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3609" spans="1:2" x14ac:dyDescent="0.25">
@@ -29837,7 +29837,7 @@
         <v>41225</v>
       </c>
       <c r="B3617" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3618" spans="1:2" x14ac:dyDescent="0.25">
@@ -29901,7 +29901,7 @@
         <v>41235</v>
       </c>
       <c r="B3625" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3626" spans="1:2" x14ac:dyDescent="0.25">
@@ -30085,7 +30085,7 @@
         <v>41268</v>
       </c>
       <c r="B3648" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3649" spans="1:2" x14ac:dyDescent="0.25">
@@ -30125,7 +30125,7 @@
         <v>41275</v>
       </c>
       <c r="B3653" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3654" spans="1:2" x14ac:dyDescent="0.25">
@@ -30237,7 +30237,7 @@
         <v>41295</v>
       </c>
       <c r="B3667" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3668" spans="1:2" x14ac:dyDescent="0.25">
@@ -30397,7 +30397,7 @@
         <v>41323</v>
       </c>
       <c r="B3687" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3688" spans="1:2" x14ac:dyDescent="0.25">
@@ -30629,7 +30629,7 @@
         <v>41362</v>
       </c>
       <c r="B3716" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3717" spans="1:2" x14ac:dyDescent="0.25">
@@ -30957,7 +30957,7 @@
         <v>41421</v>
       </c>
       <c r="B3757" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3758" spans="1:2" x14ac:dyDescent="0.25">
@@ -31181,7 +31181,7 @@
         <v>41459</v>
       </c>
       <c r="B3785" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3786" spans="1:2" x14ac:dyDescent="0.25">
@@ -31517,7 +31517,7 @@
         <v>41519</v>
       </c>
       <c r="B3827" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3828" spans="1:2" x14ac:dyDescent="0.25">
@@ -31757,7 +31757,7 @@
         <v>41561</v>
       </c>
       <c r="B3857" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3858" spans="1:2" x14ac:dyDescent="0.25">
@@ -31917,7 +31917,7 @@
         <v>41589</v>
       </c>
       <c r="B3877" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3878" spans="1:2" x14ac:dyDescent="0.25">
@@ -32021,7 +32021,7 @@
         <v>41606</v>
       </c>
       <c r="B3890" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3891" spans="1:2" x14ac:dyDescent="0.25">
@@ -32173,7 +32173,7 @@
         <v>41633</v>
       </c>
       <c r="B3909" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3910" spans="1:2" x14ac:dyDescent="0.25">
@@ -32213,7 +32213,7 @@
         <v>41640</v>
       </c>
       <c r="B3914" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3915" spans="1:2" x14ac:dyDescent="0.25">
@@ -32317,7 +32317,7 @@
         <v>41659</v>
       </c>
       <c r="B3927" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3928" spans="1:2" x14ac:dyDescent="0.25">
@@ -32477,7 +32477,7 @@
         <v>41687</v>
       </c>
       <c r="B3947" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3948" spans="1:2" x14ac:dyDescent="0.25">
@@ -32829,7 +32829,7 @@
         <v>41747</v>
       </c>
       <c r="B3991" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3992" spans="1:2" x14ac:dyDescent="0.25">
@@ -33037,7 +33037,7 @@
         <v>41785</v>
       </c>
       <c r="B4017" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4018" spans="1:2" x14ac:dyDescent="0.25">
@@ -33269,7 +33269,7 @@
         <v>41824</v>
       </c>
       <c r="B4046" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4047" spans="1:2" x14ac:dyDescent="0.25">
@@ -33597,7 +33597,7 @@
         <v>41883</v>
       </c>
       <c r="B4087" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4088" spans="1:2" x14ac:dyDescent="0.25">
@@ -33837,7 +33837,7 @@
         <v>41925</v>
       </c>
       <c r="B4117" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4118" spans="1:2" x14ac:dyDescent="0.25">
@@ -34005,7 +34005,7 @@
         <v>41954</v>
       </c>
       <c r="B4138" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4139" spans="1:2" x14ac:dyDescent="0.25">
@@ -34101,7 +34101,7 @@
         <v>41970</v>
       </c>
       <c r="B4150" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4151" spans="1:2" x14ac:dyDescent="0.25">
@@ -34261,7 +34261,7 @@
         <v>41998</v>
       </c>
       <c r="B4170" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4171" spans="1:2" x14ac:dyDescent="0.25">
@@ -34301,7 +34301,7 @@
         <v>42005</v>
       </c>
       <c r="B4175" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4176" spans="1:2" x14ac:dyDescent="0.25">
@@ -34397,7 +34397,7 @@
         <v>42023</v>
       </c>
       <c r="B4187" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4188" spans="1:2" x14ac:dyDescent="0.25">
@@ -34557,7 +34557,7 @@
         <v>42051</v>
       </c>
       <c r="B4207" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4208" spans="1:2" x14ac:dyDescent="0.25">
@@ -35117,7 +35117,7 @@
         <v>42149</v>
       </c>
       <c r="B4277" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4278" spans="1:2" x14ac:dyDescent="0.25">
@@ -35349,7 +35349,7 @@
         <v>42188</v>
       </c>
       <c r="B4306" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4307" spans="1:2" x14ac:dyDescent="0.25">
@@ -35717,7 +35717,7 @@
         <v>42254</v>
       </c>
       <c r="B4352" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4353" spans="1:2" x14ac:dyDescent="0.25">
@@ -35917,7 +35917,7 @@
         <v>42289</v>
       </c>
       <c r="B4377" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4378" spans="1:2" x14ac:dyDescent="0.25">
@@ -36093,7 +36093,7 @@
         <v>42319</v>
       </c>
       <c r="B4399" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4400" spans="1:2" x14ac:dyDescent="0.25">
@@ -36181,7 +36181,7 @@
         <v>42334</v>
       </c>
       <c r="B4410" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4411" spans="1:2" x14ac:dyDescent="0.25">
@@ -36349,7 +36349,7 @@
         <v>42363</v>
       </c>
       <c r="B4431" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4432" spans="1:2" x14ac:dyDescent="0.25">
@@ -36389,7 +36389,7 @@
         <v>42370</v>
       </c>
       <c r="B4436" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4437" spans="1:2" x14ac:dyDescent="0.25">
@@ -36477,7 +36477,7 @@
         <v>42387</v>
       </c>
       <c r="B4447" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4448" spans="1:2" x14ac:dyDescent="0.25">
@@ -36637,7 +36637,7 @@
         <v>42415</v>
       </c>
       <c r="B4467" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4468" spans="1:2" x14ac:dyDescent="0.25">
@@ -36869,7 +36869,7 @@
         <v>42454</v>
       </c>
       <c r="B4496" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4497" spans="1:2" x14ac:dyDescent="0.25">
@@ -37237,7 +37237,7 @@
         <v>42520</v>
       </c>
       <c r="B4542" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4543" spans="1:2" x14ac:dyDescent="0.25">
@@ -37437,7 +37437,7 @@
         <v>42555</v>
       </c>
       <c r="B4567" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4568" spans="1:2" x14ac:dyDescent="0.25">
@@ -37797,7 +37797,7 @@
         <v>42618</v>
       </c>
       <c r="B4612" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4613" spans="1:2" x14ac:dyDescent="0.25">
@@ -37997,7 +37997,7 @@
         <v>42653</v>
       </c>
       <c r="B4637" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4638" spans="1:2" x14ac:dyDescent="0.25">
@@ -38189,7 +38189,7 @@
         <v>42685</v>
       </c>
       <c r="B4661" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4662" spans="1:2" x14ac:dyDescent="0.25">
@@ -38261,7 +38261,7 @@
         <v>42698</v>
       </c>
       <c r="B4670" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4671" spans="1:2" x14ac:dyDescent="0.25">
@@ -38437,7 +38437,7 @@
         <v>42730</v>
       </c>
       <c r="B4692" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4693" spans="1:2" x14ac:dyDescent="0.25">
@@ -38477,7 +38477,7 @@
         <v>42737</v>
       </c>
       <c r="B4697" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4698" spans="1:2" x14ac:dyDescent="0.25">
@@ -38557,7 +38557,7 @@
         <v>42751</v>
       </c>
       <c r="B4707" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4708" spans="1:2" x14ac:dyDescent="0.25">
@@ -38757,7 +38757,7 @@
         <v>42786</v>
       </c>
       <c r="B4732" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4733" spans="1:2" x14ac:dyDescent="0.25">
@@ -39069,7 +39069,7 @@
         <v>42839</v>
       </c>
       <c r="B4771" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4772" spans="1:2" x14ac:dyDescent="0.25">
@@ -39317,7 +39317,7 @@
         <v>42884</v>
       </c>
       <c r="B4802" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4803" spans="1:2" x14ac:dyDescent="0.25">
@@ -39525,7 +39525,7 @@
         <v>42920</v>
       </c>
       <c r="B4828" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4829" spans="1:2" x14ac:dyDescent="0.25">
@@ -39877,7 +39877,7 @@
         <v>42982</v>
       </c>
       <c r="B4872" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4873" spans="1:2" x14ac:dyDescent="0.25">
@@ -40269,7 +40269,7 @@
         <v>43049</v>
       </c>
       <c r="B4921" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4922" spans="1:2" x14ac:dyDescent="0.25">
@@ -40341,7 +40341,7 @@
         <v>43062</v>
       </c>
       <c r="B4930" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4931" spans="1:2" x14ac:dyDescent="0.25">
@@ -40517,7 +40517,7 @@
         <v>43094</v>
       </c>
       <c r="B4952" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4953" spans="1:2" x14ac:dyDescent="0.25">
@@ -40557,7 +40557,7 @@
         <v>43101</v>
       </c>
       <c r="B4957" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4958" spans="1:2" x14ac:dyDescent="0.25">
@@ -40637,7 +40637,7 @@
         <v>43115</v>
       </c>
       <c r="B4967" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4968" spans="1:2" x14ac:dyDescent="0.25">
@@ -40837,7 +40837,7 @@
         <v>43150</v>
       </c>
       <c r="B4992" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4993" spans="1:2" x14ac:dyDescent="0.25">
@@ -41069,7 +41069,7 @@
         <v>43189</v>
       </c>
       <c r="B5021" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5022" spans="1:2" x14ac:dyDescent="0.25">
@@ -41397,7 +41397,7 @@
         <v>43248</v>
       </c>
       <c r="B5062" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5063" spans="1:2" x14ac:dyDescent="0.25">
@@ -41613,7 +41613,7 @@
         <v>43285</v>
       </c>
       <c r="B5089" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5090" spans="1:2" x14ac:dyDescent="0.25">
@@ -41957,7 +41957,7 @@
         <v>43346</v>
       </c>
       <c r="B5132" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5133" spans="1:2" x14ac:dyDescent="0.25">
@@ -42357,7 +42357,7 @@
         <v>43416</v>
       </c>
       <c r="B5182" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5183" spans="1:2" x14ac:dyDescent="0.25">
@@ -42421,7 +42421,7 @@
         <v>43426</v>
       </c>
       <c r="B5190" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5191" spans="1:2" x14ac:dyDescent="0.25">
@@ -42493,7 +42493,7 @@
         <v>43439</v>
       </c>
       <c r="B5199" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5200" spans="1:2" x14ac:dyDescent="0.25">
@@ -42605,7 +42605,7 @@
         <v>43459</v>
       </c>
       <c r="B5213" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5214" spans="1:2" x14ac:dyDescent="0.25">
@@ -42645,7 +42645,7 @@
         <v>43466</v>
       </c>
       <c r="B5218" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5219" spans="1:2" x14ac:dyDescent="0.25">
@@ -42757,7 +42757,7 @@
         <v>43486</v>
       </c>
       <c r="B5232" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5233" spans="1:2" x14ac:dyDescent="0.25">
@@ -42917,7 +42917,7 @@
         <v>43514</v>
       </c>
       <c r="B5252" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5253" spans="1:2" x14ac:dyDescent="0.25">
@@ -43269,7 +43269,7 @@
         <v>43574</v>
       </c>
       <c r="B5296" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5297" spans="1:2" x14ac:dyDescent="0.25">
@@ -43477,7 +43477,7 @@
         <v>43612</v>
       </c>
       <c r="B5322" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5323" spans="1:2" x14ac:dyDescent="0.25">
@@ -43701,7 +43701,7 @@
         <v>43650</v>
       </c>
       <c r="B5350" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5351" spans="1:2" x14ac:dyDescent="0.25">
@@ -44037,7 +44037,7 @@
         <v>43710</v>
       </c>
       <c r="B5392" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5393" spans="1:2" x14ac:dyDescent="0.25">
@@ -44277,7 +44277,7 @@
         <v>43752</v>
       </c>
       <c r="B5422" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5423" spans="1:2" x14ac:dyDescent="0.25">
@@ -44437,7 +44437,7 @@
         <v>43780</v>
       </c>
       <c r="B5442" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5443" spans="1:2" x14ac:dyDescent="0.25">
@@ -44541,7 +44541,7 @@
         <v>43797</v>
       </c>
       <c r="B5455" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5456" spans="1:2" x14ac:dyDescent="0.25">
@@ -44693,7 +44693,7 @@
         <v>43824</v>
       </c>
       <c r="B5474" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5475" spans="1:2" x14ac:dyDescent="0.25">
@@ -44733,7 +44733,7 @@
         <v>43831</v>
       </c>
       <c r="B5479" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5480" spans="1:2" x14ac:dyDescent="0.25">
@@ -44837,7 +44837,7 @@
         <v>43850</v>
       </c>
       <c r="B5492" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5493" spans="1:2" x14ac:dyDescent="0.25">
@@ -44997,7 +44997,7 @@
         <v>43878</v>
       </c>
       <c r="B5512" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5513" spans="1:2" x14ac:dyDescent="0.25">
@@ -45309,7 +45309,7 @@
         <v>43931</v>
       </c>
       <c r="B5551" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5552" spans="1:2" x14ac:dyDescent="0.25">
@@ -45557,7 +45557,7 @@
         <v>43976</v>
       </c>
       <c r="B5582" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5583" spans="1:2" x14ac:dyDescent="0.25">
@@ -45789,7 +45789,7 @@
         <v>44015</v>
       </c>
       <c r="B5611" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5612" spans="1:2" x14ac:dyDescent="0.25">
@@ -46157,7 +46157,7 @@
         <v>44081</v>
       </c>
       <c r="B5657" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5658" spans="1:2" x14ac:dyDescent="0.25">
@@ -46357,7 +46357,7 @@
         <v>44116</v>
       </c>
       <c r="B5682" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5683" spans="1:2" x14ac:dyDescent="0.25">
@@ -46533,7 +46533,7 @@
         <v>44146</v>
       </c>
       <c r="B5704" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5705" spans="1:2" x14ac:dyDescent="0.25">
@@ -46621,7 +46621,7 @@
         <v>44161</v>
       </c>
       <c r="B5715" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5716" spans="1:2" x14ac:dyDescent="0.25">
@@ -46789,7 +46789,7 @@
         <v>44190</v>
       </c>
       <c r="B5736" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5737" spans="1:2" x14ac:dyDescent="0.25">
@@ -46829,7 +46829,7 @@
         <v>44197</v>
       </c>
       <c r="B5741" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5742" spans="1:2" x14ac:dyDescent="0.25">
@@ -46917,7 +46917,7 @@
         <v>44214</v>
       </c>
       <c r="B5752" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5753" spans="1:2" x14ac:dyDescent="0.25">
@@ -47077,7 +47077,7 @@
         <v>44242</v>
       </c>
       <c r="B5772" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5773" spans="1:2" x14ac:dyDescent="0.25">
@@ -47349,7 +47349,7 @@
         <v>44288</v>
       </c>
       <c r="B5806" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5807" spans="1:2" x14ac:dyDescent="0.25">
@@ -47677,7 +47677,7 @@
         <v>44347</v>
       </c>
       <c r="B5847" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5848" spans="1:2" x14ac:dyDescent="0.25">
@@ -47877,7 +47877,7 @@
         <v>44382</v>
       </c>
       <c r="B5872" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5873" spans="1:2" x14ac:dyDescent="0.25">
@@ -48237,7 +48237,7 @@
         <v>44445</v>
       </c>
       <c r="B5917" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5918" spans="1:2" x14ac:dyDescent="0.25">
@@ -48437,7 +48437,7 @@
         <v>44480</v>
       </c>
       <c r="B5942" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5943" spans="1:2" x14ac:dyDescent="0.25">
@@ -48701,7 +48701,7 @@
         <v>44525</v>
       </c>
       <c r="B5975" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5976" spans="1:2" x14ac:dyDescent="0.25">
@@ -48869,7 +48869,7 @@
         <v>44554</v>
       </c>
       <c r="B5996" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5997" spans="1:2" x14ac:dyDescent="0.25">
@@ -48909,7 +48909,7 @@
         <v>44561</v>
       </c>
       <c r="B6001" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6002" spans="1:2" x14ac:dyDescent="0.25">
@@ -48997,7 +48997,7 @@
         <v>44578</v>
       </c>
       <c r="B6012" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6013" spans="1:2" x14ac:dyDescent="0.25">
@@ -49197,7 +49197,7 @@
         <v>44613</v>
       </c>
       <c r="B6037" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6038" spans="1:2" x14ac:dyDescent="0.25">
@@ -49509,7 +49509,7 @@
         <v>44666</v>
       </c>
       <c r="B6076" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6077" spans="1:2" x14ac:dyDescent="0.25">
@@ -49757,7 +49757,7 @@
         <v>44711</v>
       </c>
       <c r="B6107" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6108" spans="1:2" x14ac:dyDescent="0.25">
@@ -49877,7 +49877,7 @@
         <v>44732</v>
       </c>
       <c r="B6122" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6123" spans="1:2" x14ac:dyDescent="0.25">
@@ -49957,7 +49957,7 @@
         <v>44746</v>
       </c>
       <c r="B6132" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6133" spans="1:2" x14ac:dyDescent="0.25">
@@ -50317,7 +50317,7 @@
         <v>44809</v>
       </c>
       <c r="B6177" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6178" spans="1:2" x14ac:dyDescent="0.25">
@@ -50709,7 +50709,7 @@
         <v>44876</v>
       </c>
       <c r="B6226" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6227" spans="1:2" x14ac:dyDescent="0.25">
@@ -50781,7 +50781,7 @@
         <v>44889</v>
       </c>
       <c r="B6235" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6236" spans="1:2" x14ac:dyDescent="0.25">
@@ -50957,7 +50957,7 @@
         <v>44921</v>
       </c>
       <c r="B6257" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6258" spans="1:2" x14ac:dyDescent="0.25">
@@ -50997,7 +50997,7 @@
         <v>44928</v>
       </c>
       <c r="B6262" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6263" spans="1:2" x14ac:dyDescent="0.25">
@@ -51077,7 +51077,7 @@
         <v>44942</v>
       </c>
       <c r="B6272" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6273" spans="1:2" x14ac:dyDescent="0.25">
@@ -51277,7 +51277,7 @@
         <v>44977</v>
       </c>
       <c r="B6297" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6298" spans="1:2" x14ac:dyDescent="0.25">
@@ -51549,7 +51549,7 @@
         <v>45023</v>
       </c>
       <c r="B6331" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6332" spans="1:2" x14ac:dyDescent="0.25">
@@ -51837,7 +51837,7 @@
         <v>45075</v>
       </c>
       <c r="B6367" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6368" spans="1:2" x14ac:dyDescent="0.25">
